--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/GFGO_PLM/codebase/ext/generic/cfg/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5053E387-45ED-D946-8E49-E304231B26E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C8275-35C5-5E44-84A1-C5FB5EA40869}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -617,7 +617,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -636,7 +636,7 @@
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="32" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -669,7 +669,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="31" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -698,7 +698,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="29" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -717,7 +717,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" ht="29" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>

--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60C8275-35C5-5E44-84A1-C5FB5EA40869}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0044F-3A70-2149-8C9C-89BE9A016E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>零部件类型</t>
   </si>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>成品D</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S R:product_line_director_leader,R:rd_director</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -614,10 +618,10 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -759,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="16" t="s">

--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B0044F-3A70-2149-8C9C-89BE9A016E43}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4EF3-35F8-D548-86C0-992CE501E461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>零部件类型</t>
   </si>
@@ -76,14 +76,6 @@
     <t>此行勿删除</t>
   </si>
   <si>
-    <t>Y R:product_line_leader,R:product_manager,R:project_manager,R:system_development,R:optical_development,R:hardware_development,R:software_development,R:optical_structure_development,R:structure_development,R:packaging_development,R:data_development,R:thermal_design,R:id_design,R:cable_development,R:process_development,R:pcb_design,R:purchasing_representative,R:quality_representative,R:manufacturing_representative,R:pmc_representative,R:after_sale_representative,R:intellectual_property_representative,R:financial_representative,R:test_representative,R:product_certification,R:director_system_leader,R:financial_officer,R:engineering_leader,R:quality_leader,R:pmc_leader,R:dqa_leader,R:test_manager,R:light_machine_leader,R:optical_manager,R:optical_structure_manager,R:software_leader,R:software_manager,R:rd_management_leader,R:project_management_leader,R:harderware_leader,R:harderware_manager,R:pcb_design_manager,R:cis_manager,R:machine_engineering_leader,R:structure_manager,R:process_development_manager,R:cable_development_manager,R:packaging_development_manager,R:thermal_design_manager,R:id_manager,R:rd_assistant,R:data_management_engineer,R:sales_representative,R:rd_material_staff,R:director,R:project_director_leader,R:researcher,R:material_development,R:material_manager,R:fpga_development,R:rd_representative,R:encapsulation_development,R:encapsulation_development_manager,R:product_certification_manager,R:company_leader,R:purchasing_leader,R:rd_director,R:product_line_director_leader,R:engineering_manager</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>S R:hardware_development,R:cable_development,R:structure_development,R:optical_structure_development,R:thermal_design,R:packaging_development,R:optical_development,R:process_development,R:project_manager,R:manufacturing_manager</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>Y R:system_development</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -133,6 +125,22 @@
   </si>
   <si>
     <t>S R:product_line_director_leader,R:rd_director</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_leader</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>S R:hardware_development</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_manager,R:project_manager</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:hardware_development,R:software_development</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -618,29 +626,29 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="52.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32" customHeight="1">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -673,7 +681,7 @@
       </c>
       <c r="K1" s="10"/>
     </row>
-    <row r="2" spans="1:11" ht="31" customHeight="1">
+    <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -702,7 +710,7 @@
       </c>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="29" customHeight="1">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -721,7 +729,7 @@
       </c>
       <c r="K3" s="11"/>
     </row>
-    <row r="4" spans="1:11" ht="29" customHeight="1">
+    <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -732,138 +740,138 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="11"/>
     </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="144">
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="A5" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="16" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="144">
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="A6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="144">
+    <row r="7" spans="1:11" ht="16">
       <c r="A7" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="16" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="144">
+    <row r="8" spans="1:11" ht="16">
       <c r="A8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="16" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:11">

--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4EF3-35F8-D548-86C0-992CE501E461}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFFF45-5C8C-264F-B967-3744E3BE4CB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>零部件类型</t>
   </si>
@@ -77,78 +77,62 @@
   </si>
   <si>
     <t>Y R:system_development</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y R:product_manager</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>appo_cp18</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeItemType=设计变更;;;ChangeObjectType=BOM变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>部件</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeItemType=工程变更;;;ChangeObjectType=图纸变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeItemType=设计变更;;;ChangeObjectType=图纸变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeItemType=工程变更;;;ChangeObjectType=BOM变更</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品A</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品B</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品C</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>成品D</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S R:product_line_director_leader,R:rd_director</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y R:product_line_leader</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>S R:hardware_development</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y R:product_manager,R:project_manager</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Y R:hardware_development,R:software_development</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=设计变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=设计变更;;;ChangeObjectType=图纸变更;;;view=Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=工程变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=工程变更;;;ChangeObjectType=图纸变更;;;view=Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -170,14 +154,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -243,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -272,18 +248,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -626,17 +605,17 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A10" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="K1" sqref="K1:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
@@ -735,7 +714,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="14"/>
+      <c r="D4" s="13"/>
       <c r="E4" s="7" t="s">
         <v>14</v>
       </c>
@@ -746,40 +725,38 @@
       <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="A5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="17"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
       <c r="A6" s="15" t="s">
@@ -788,60 +765,56 @@
       <c r="B6" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="H6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>27</v>
-      </c>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="16">
       <c r="A7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="K7" s="17"/>
     </row>
     <row r="8" spans="1:11" ht="16">
       <c r="A8" s="15" t="s">
@@ -850,36 +823,34 @@
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="G8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>29</v>
-      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="17"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -887,10 +858,10 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="13"/>
+      <c r="K9" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFFFF45-5C8C-264F-B967-3744E3BE4CB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE2BF9-9A7B-2145-9441-304C785A42E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>零部件类型</t>
   </si>
@@ -67,28 +67,25 @@
     <t>Y R:data_management_engineer</t>
   </si>
   <si>
+    <t>Y R:product_line_director_leader,R:rd_director</t>
+  </si>
+  <si>
+    <t>此行勿删除</t>
+  </si>
+  <si>
+    <t>Y R:system_development</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>appo_cp18</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>部件</t>
-  </si>
-  <si>
-    <t>Y R:product_line_director_leader,R:rd_director</t>
-  </si>
-  <si>
-    <t>此行勿删除</t>
-  </si>
-  <si>
-    <t>Y R:system_development</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y R:product_manager</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>appo_cp18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>部件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -108,23 +105,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y R:hardware_development,R:software_development</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeItemType=设计变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ChangeItemType=设计变更;;;ChangeObjectType=图纸变更;;;view=Design</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ChangeItemType=工程变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangeItemType=工程变更;;;ChangeObjectType=图纸变更;;;view=Design</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -232,12 +217,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -602,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K1" sqref="K1:K8"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -655,10 +634,10 @@
       <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="5" t="s">
@@ -687,7 +666,7 @@
       <c r="J2" s="6">
         <v>7</v>
       </c>
-      <c r="K2" s="11"/>
+      <c r="K2" s="9"/>
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="5" t="s">
@@ -706,7 +685,7 @@
       <c r="J3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="9"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="5" t="s">
@@ -714,151 +693,93 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7" t="s">
+      <c r="F4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="9"/>
     </row>
     <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" ht="16">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="14" t="s">
+      <c r="F6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="17"/>
+      <c r="K6" s="15"/>
     </row>
-    <row r="6" spans="1:11" s="1" customFormat="1" ht="16">
-      <c r="A6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="13" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="17"/>
-    </row>
-    <row r="7" spans="1:11" ht="16">
-      <c r="A7" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="17"/>
-    </row>
-    <row r="8" spans="1:11" ht="16">
-      <c r="A8" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
+++ b/codebase/ext/generic/cfg/APPO_BOMCHANGEWF.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtong/workspace/IntelliJIDEWorkspace/APPO_PLM/codebase/ext/generic/cfg/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DE2BF9-9A7B-2145-9441-304C785A42E2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EE3E15-17DC-CE40-9807-11C1FB205A20}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="57">
   <si>
     <t>零部件类型</t>
   </si>
@@ -62,12 +62,6 @@
   </si>
   <si>
     <t>default</t>
-  </si>
-  <si>
-    <t>Y R:data_management_engineer</t>
-  </si>
-  <si>
-    <t>Y R:product_line_director_leader,R:rd_director</t>
   </si>
   <si>
     <t>此行勿删除</t>
@@ -77,39 +71,144 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y R:product_manager</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>appo_cp18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>部件</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>S R:product_line_director_leader,R:rd_director</t>
+    <t>激光电视光机</t>
+  </si>
+  <si>
+    <t>光峰光源光机</t>
+  </si>
+  <si>
+    <t>影院海外</t>
+  </si>
+  <si>
+    <t>Barco光源</t>
+  </si>
+  <si>
+    <t>LD封装器件</t>
+  </si>
+  <si>
+    <t>舞台灯</t>
+  </si>
+  <si>
+    <t>DLP教育投影</t>
+  </si>
+  <si>
+    <t>激光电视</t>
+  </si>
+  <si>
+    <t>工程投影</t>
+  </si>
+  <si>
+    <t>影院中光</t>
+  </si>
+  <si>
+    <t>影院放映机</t>
+  </si>
+  <si>
+    <t>屏幕</t>
+  </si>
+  <si>
+    <t>影院Barco</t>
+  </si>
+  <si>
+    <t>DLP商务投影</t>
+  </si>
+  <si>
+    <t>拼墙</t>
+  </si>
+  <si>
+    <t>光峰激光电视</t>
+  </si>
+  <si>
+    <t>3LCD商教</t>
+  </si>
+  <si>
+    <t>激光微投光机</t>
+  </si>
+  <si>
+    <t>微投</t>
+  </si>
+  <si>
+    <t>Y R:data_management_engineer</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y R:product_line_leader</t>
+    <t>ChangeItemType=设计变更;;;view=Design</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>S R:hardware_development</t>
+    <t>Y R:project_manager</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Y R:product_manager,R:project_manager</t>
+    <t>Y R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:engineering_manager,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification</t>
+  </si>
+  <si>
+    <t>Y R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:engineering_manager,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ChangeItemType=设计变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
+    <t>Y R:product_line_director_leader</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ChangeItemType=工程变更;;;ChangeObjectType=BOM变更;;;view=Design</t>
+    <t>Y R:</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=工程变更;;;view=Design</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:manufacturing_manager,R:engineering_manager</t>
+  </si>
+  <si>
+    <t>Y R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:engineering_manager,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification,R:project_manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:product_line_director_leader,R:engineering_leader</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>激光电视光机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y R:manufacturing_manager,R:engineering_manager</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>光峰光源光机</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>影院海外</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barco光源</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=设计变更;;;view=Manufacturing</t>
+  </si>
+  <si>
+    <t>Y R:harderware_manager,R:software_manager,R:optical_manager,R:optical_structure_manager,R:structure_manager,R:packaging_development_manager,R:cable_development_manager,R:process_development_manager,R:encapsulation_development_manager,R:material_manager,R:thermal_design_manager,R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:engineering_manager,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=设计变更;;;view=Manufacturing</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChangeItemType=工程变更;;;view=Manufacturing</t>
+  </si>
+  <si>
+    <t>Y R:harderware_manager,R:software_manager,R:optical_manager,R:optical_structure_manager,R:structure_manager,R:packaging_development_manager,R:cable_development_manager,R:process_development_manager,R:encapsulation_development_manager,R:material_manager,R:thermal_design_manager,R:purchasing_representative,R:pmc_representative,R:product_manager,R:quality_representative,R:test_representative,R:engineering_manager,R:manufacturing_manager,R:hardware_development,R:software_development,R:optical_development,R:structure_development,R:optical_structure_development,R:process_development,R:encapsulation_development,R:system_development,R:thermal_design,R:id_design,R:cable_development,R:packaging_development,R:after_sale_representative,R:sales_representative,R:product_certification,R:project_manager</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +256,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +275,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -200,14 +317,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -227,21 +391,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,205 +814,2294 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="70" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="12" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6">
+      <c r="B2" s="4"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="16">
         <v>2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>4</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>6</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>7</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" ht="48">
+      <c r="A5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="48">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="48">
+      <c r="A7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="48">
+      <c r="A8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="48">
+      <c r="A9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" ht="48">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="23"/>
+      <c r="J10" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" ht="48">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="23"/>
+      <c r="J11" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" ht="48">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="23"/>
+      <c r="J12" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" ht="48">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="23"/>
+      <c r="J13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="48">
+      <c r="A14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="23"/>
+      <c r="J14" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" ht="48">
+      <c r="A15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" ht="48">
+      <c r="A16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" ht="48">
+      <c r="A17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" ht="48">
+      <c r="A18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" ht="48">
+      <c r="A19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" ht="48">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="48">
+      <c r="A21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" ht="48">
+      <c r="A22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" ht="48">
+      <c r="A23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" ht="64">
+      <c r="A24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="64">
+      <c r="A25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="26"/>
+      <c r="E25" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="64">
+      <c r="A26" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="26"/>
+      <c r="E26" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="64">
+      <c r="A27" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="26"/>
+      <c r="E27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="64">
+      <c r="A28" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="26"/>
+      <c r="E28" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="64">
+      <c r="A29" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="26"/>
+      <c r="E29" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="64">
+      <c r="A30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G30" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="64">
+      <c r="A31" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="64">
+      <c r="A32" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="26"/>
+      <c r="E32" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="64">
+      <c r="A33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="26"/>
+      <c r="E33" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="64">
+      <c r="A34" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="26"/>
+      <c r="E34" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="64">
+      <c r="A35" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="64">
+      <c r="A36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F36" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G36" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="64">
+      <c r="A37" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G37" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="64">
+      <c r="A38" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G38" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" s="26"/>
+      <c r="J38" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="64">
+      <c r="A39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="26"/>
+      <c r="E39" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="64">
+      <c r="A40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G40" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" s="26"/>
+      <c r="J40" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="64">
+      <c r="A41" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D41" s="26"/>
+      <c r="E41" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="64">
+      <c r="A42" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F42" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="26"/>
+      <c r="J42" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="80">
+      <c r="A43" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="33"/>
+      <c r="E43" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I43" s="33"/>
+      <c r="J43" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="80">
+      <c r="A44" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H44" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="33"/>
+      <c r="J44" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="80">
+      <c r="A45" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="33"/>
+      <c r="E45" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="80">
+      <c r="A46" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I46" s="33"/>
+      <c r="J46" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="80">
+      <c r="A47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D47" s="33"/>
+      <c r="E47" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="80">
+      <c r="A48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" s="33"/>
+      <c r="E48" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H48" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I48" s="33"/>
+      <c r="J48" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="80">
+      <c r="A49" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="33"/>
+      <c r="J49" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="80">
+      <c r="A50" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50" s="33"/>
+      <c r="E50" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="33"/>
+      <c r="J50" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="80">
+      <c r="A51" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" s="33"/>
+      <c r="J51" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="80">
+      <c r="A52" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" s="33"/>
+      <c r="E52" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F52" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G52" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I52" s="33"/>
+      <c r="J52" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="80">
+      <c r="A53" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="33"/>
+      <c r="J53" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="80">
+      <c r="A54" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I54" s="33"/>
+      <c r="J54" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="80">
+      <c r="A55" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" s="33"/>
+      <c r="E55" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I55" s="33"/>
+      <c r="J55" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="80">
+      <c r="A56" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F56" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="33"/>
+      <c r="J56" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="80">
+      <c r="A57" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F57" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I57" s="33"/>
+      <c r="J57" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="80">
+      <c r="A58" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D58" s="33"/>
+      <c r="E58" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F58" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="33"/>
+      <c r="J58" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="80">
+      <c r="A59" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D59" s="33"/>
+      <c r="E59" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F59" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="33"/>
+      <c r="J59" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="80">
+      <c r="A60" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="F60" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="33"/>
+      <c r="J60" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="80">
+      <c r="A61" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F61" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="I61" s="33"/>
+      <c r="J61" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="80">
+      <c r="A62" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G62" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="80">
+      <c r="A63" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" s="26"/>
+      <c r="E63" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G63" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H63" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="80">
+      <c r="A64" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" s="26"/>
+      <c r="E64" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G64" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H64" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="80">
+      <c r="A65" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="26"/>
+      <c r="E65" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H65" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="80">
+      <c r="A66" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H66" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="80">
+      <c r="A67" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="26"/>
+      <c r="E67" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F67" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G67" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="80">
+      <c r="A68" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" s="26"/>
+      <c r="E68" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G68" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H68" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="80">
+      <c r="A69" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" s="26"/>
+      <c r="E69" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F69" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G69" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="80">
+      <c r="A70" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="26"/>
+      <c r="E70" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F70" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H70" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="80">
+      <c r="A71" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="26"/>
+      <c r="E71" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G71" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H71" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="80">
+      <c r="A72" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="26"/>
+      <c r="J72" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="80">
+      <c r="A73" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" s="26"/>
+      <c r="E73" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" s="26"/>
+      <c r="J73" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="80">
+      <c r="A74" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G74" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="80">
+      <c r="A75" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" s="26"/>
+      <c r="E75" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G75" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="26"/>
+      <c r="J75" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="80">
+      <c r="A76" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H76" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="80">
+      <c r="A77" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G77" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" s="26"/>
+      <c r="J77" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="80">
+      <c r="A78" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="26"/>
+      <c r="E78" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H78" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="80">
+      <c r="A79" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G79" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H79" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="26"/>
+      <c r="J79" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="80">
+      <c r="A80" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F80" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H80" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" spans="1:11" s="1" customFormat="1" ht="16">
-      <c r="A5" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" ht="16">
-      <c r="A6" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="37"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
